--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F34899E-98B1-4576-9328-71C9315BC39C}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E1B155-379C-48DD-87C0-39B300239148}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="Rafael Nadal (SPAIN)" sheetId="3" r:id="rId3"/>
     <sheet name="Novak Djokovic (SERBIA)" sheetId="4" r:id="rId4"/>
     <sheet name="Roger Federer (SWITZERLAND)" sheetId="5" r:id="rId5"/>
+    <sheet name="Word Document Organization" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Word Document Organization'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
   <si>
     <t>Carpet</t>
   </si>
@@ -223,6 +227,87 @@
   </si>
   <si>
     <t>Swiss Indoors</t>
+  </si>
+  <si>
+    <t>Serena Williams (USA)</t>
+  </si>
+  <si>
+    <t>Kim Clijsters (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>Ashleigh Barty (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>PLAYER NAME</t>
+  </si>
+  <si>
+    <t>NUMBER OF TITLES WON</t>
+  </si>
+  <si>
+    <t>WINS</t>
+  </si>
+  <si>
+    <t>LOSSES</t>
+  </si>
+  <si>
+    <t>WINNING PERCENTILE RANGE</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Angelique Kerber (GERMANY)</t>
+  </si>
+  <si>
+    <t>Maria Sharapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Aga Radwańska (POLAND)</t>
+  </si>
+  <si>
+    <t>Leylah Fernandez (CANADA)</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>Kiki Bertens (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>Novak Djokovic (SERBIA)</t>
+  </si>
+  <si>
+    <t>Rafael Nadal (SPAIN)</t>
+  </si>
+  <si>
+    <t>Andy Murray (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Juan Martín Del Potro (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Daniil Medvedev (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Marin Čilić (CROATIA)</t>
+  </si>
+  <si>
+    <t>Kei Nishikori (JAPAN)</t>
+  </si>
+  <si>
+    <t>Sacsha Zverev (GERMANY)</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Matteo Berrettini (ITALY)</t>
+  </si>
+  <si>
+    <t>Jannik Sinner (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -266,9 +351,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +676,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C38"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,10 +776,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -700,18 +787,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -722,10 +809,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -733,13 +820,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,7 +1120,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C20"/>
     </sheetView>
   </sheetViews>
@@ -1280,7 +1367,7 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1834,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2126,7 +2213,7 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2551,4 +2638,472 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>858</v>
+      </c>
+      <c r="D2">
+        <v>156</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E23" si="0">(C2-D2)/C2</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D3">
+        <v>205</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79941291585127205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1066</v>
+      </c>
+      <c r="D4">
+        <v>214</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79924953095684803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>518</v>
+      </c>
+      <c r="D5">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75096525096525102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>204</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73529411764705888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>645</v>
+      </c>
+      <c r="D7">
+        <v>171</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73488372093023258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>714</v>
+      </c>
+      <c r="D8">
+        <v>230</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67787114845938379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>305</v>
+      </c>
+      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66885245901639345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>439</v>
+      </c>
+      <c r="D10">
+        <v>173</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60592255125284733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>262</v>
+      </c>
+      <c r="D11">
+        <v>114</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56488549618320616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>339</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55752212389380529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
+      </c>
+      <c r="D13">
+        <v>269</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55166666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>594</v>
+      </c>
+      <c r="D14">
+        <v>269</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54713804713804715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>124</v>
+      </c>
+      <c r="D15">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54032258064516125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>431</v>
+      </c>
+      <c r="D16">
+        <v>211</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51044083526682138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>141</v>
+      </c>
+      <c r="D18">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48226950354609927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>673</v>
+      </c>
+      <c r="D19">
+        <v>361</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46359583952451711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>580</v>
+      </c>
+      <c r="D20">
+        <v>324</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44137931034482758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>443</v>
+      </c>
+      <c r="D21">
+        <v>265</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40180586907449212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>124</v>
+      </c>
+      <c r="D22">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38709677419354838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>172</v>
+      </c>
+      <c r="D23">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31976744186046513</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E2:E5 E8:E23">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E1B155-379C-48DD-87C0-39B300239148}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A675477-FF71-42E2-8C0E-B266CDF87112}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="87">
   <si>
     <t>Carpet</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Coco Gauff (USA)</t>
   </si>
   <si>
-    <t>Kiki Bertens (NETHERLANDS)</t>
-  </si>
-  <si>
     <t>Novak Djokovic (SERBIA)</t>
   </si>
   <si>
@@ -295,19 +292,19 @@
     <t>Marin Čilić (CROATIA)</t>
   </si>
   <si>
-    <t>Kei Nishikori (JAPAN)</t>
-  </si>
-  <si>
     <t>Sacsha Zverev (GERMANY)</t>
   </si>
   <si>
-    <t>Dayana Yastremska (UKRAINE)</t>
-  </si>
-  <si>
     <t>Matteo Berrettini (ITALY)</t>
   </si>
   <si>
     <t>Jannik Sinner (ITALY)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>Shuai Zhang (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -371,6 +368,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,14 +680,14 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -697,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -708,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -719,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -730,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -741,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -752,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -763,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -774,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -785,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -796,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -807,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -818,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -829,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1999</v>
       </c>
@@ -840,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1999</v>
       </c>
@@ -851,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -862,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -873,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -884,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -895,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -906,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -917,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -928,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2003</v>
       </c>
@@ -939,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2003</v>
       </c>
@@ -950,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2007</v>
       </c>
@@ -961,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2008</v>
       </c>
@@ -972,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -983,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -994,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -1124,14 +1125,14 @@
       <selection activeCell="C6" sqref="C6:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1999</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1999</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2007</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -1371,14 +1372,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2009</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2004</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2010</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -1838,14 +1839,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -2217,14 +2218,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -2642,22 +2643,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2688,13 +2689,13 @@
         <v>156</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E23" si="0">(C2-D2)/C2</f>
+        <f t="shared" ref="E2:E22" si="0">(C2-D2)/C2</f>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>90</v>
@@ -2710,9 +2711,9 @@
         <v>0.79941291585127205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>92</v>
@@ -2728,7 +2729,7 @@
         <v>0.79924953095684803</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>0.75096525096525102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>0.73529411764705888</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2782,9 +2783,9 @@
         <v>0.73488372093023258</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -2800,7 +2801,7 @@
         <v>0.67787114845938379</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2818,9 +2819,9 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -2836,9 +2837,9 @@
         <v>0.60592255125284733</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -2854,9 +2855,9 @@
         <v>0.56488549618320616</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -2872,7 +2873,7 @@
         <v>0.55752212389380529</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>0.55166666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2908,9 +2909,9 @@
         <v>0.54713804713804715</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2926,25 +2927,25 @@
         <v>0.54032258064516125</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>431</v>
+        <v>307</v>
       </c>
       <c r="D16">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0.51044083526682138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.50814332247557004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2962,9 +2963,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -2980,7 +2981,7 @@
         <v>0.48226950354609927</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2998,9 +2999,9 @@
         <v>0.46359583952451711</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3016,85 +3017,49 @@
         <v>0.44137931034482758</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>124</v>
+      </c>
+      <c r="D21">
         <v>76</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>443</v>
-      </c>
-      <c r="D21">
-        <v>265</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0.40180586907449212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.38709677419354838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>124</v>
+        <v>551</v>
       </c>
       <c r="D22">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0.38709677419354838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>172</v>
-      </c>
-      <c r="D23">
-        <v>117</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.31976744186046513</v>
+        <v>0.27767695099818512</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
       <sortCondition descending="1" ref="E1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E5 E8:E23">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E2:E22">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A675477-FF71-42E2-8C0E-B266CDF87112}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFB7978-5C00-43C0-B69A-94FAA2924797}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView minimized="1" xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
   <si>
     <t>Carpet</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Shuai Zhang (CHINA)</t>
+  </si>
+  <si>
+    <t>John Isner (USA)</t>
   </si>
 </sst>
 </file>
@@ -2643,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2689,7 +2692,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E22" si="0">(C2-D2)/C2</f>
+        <f>(C2-D2)/C2</f>
         <v>0.81818181818181823</v>
       </c>
     </row>
@@ -2707,7 +2710,7 @@
         <v>205</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
+        <f>(C3-D3)/C3</f>
         <v>0.79941291585127205</v>
       </c>
     </row>
@@ -2725,7 +2728,7 @@
         <v>214</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f>(C4-D4)/C4</f>
         <v>0.79924953095684803</v>
       </c>
     </row>
@@ -2743,7 +2746,7 @@
         <v>129</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f>(C5-D5)/C5</f>
         <v>0.75096525096525102</v>
       </c>
     </row>
@@ -2761,7 +2764,7 @@
         <v>54</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f>(C6-D6)/C6</f>
         <v>0.73529411764705888</v>
       </c>
     </row>
@@ -2779,7 +2782,7 @@
         <v>171</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f>(C7-D7)/C7</f>
         <v>0.73488372093023258</v>
       </c>
     </row>
@@ -2797,7 +2800,7 @@
         <v>230</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f>(C8-D8)/C8</f>
         <v>0.67787114845938379</v>
       </c>
     </row>
@@ -2815,7 +2818,7 @@
         <v>101</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f>(C9-D9)/C9</f>
         <v>0.66885245901639345</v>
       </c>
     </row>
@@ -2833,7 +2836,7 @@
         <v>173</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f>(C10-D10)/C10</f>
         <v>0.60592255125284733</v>
       </c>
     </row>
@@ -2851,7 +2854,7 @@
         <v>114</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f>(C11-D11)/C11</f>
         <v>0.56488549618320616</v>
       </c>
     </row>
@@ -2869,7 +2872,7 @@
         <v>150</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f>(C12-D12)/C12</f>
         <v>0.55752212389380529</v>
       </c>
     </row>
@@ -2887,7 +2890,7 @@
         <v>269</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f>(C13-D13)/C13</f>
         <v>0.55166666666666664</v>
       </c>
     </row>
@@ -2905,7 +2908,7 @@
         <v>269</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f>(C14-D14)/C14</f>
         <v>0.54713804713804715</v>
       </c>
     </row>
@@ -2923,7 +2926,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f>(C15-D15)/C15</f>
         <v>0.54032258064516125</v>
       </c>
     </row>
@@ -2941,7 +2944,7 @@
         <v>151</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f>(C16-D16)/C16</f>
         <v>0.50814332247557004</v>
       </c>
     </row>
@@ -2959,7 +2962,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f>(C17-D17)/C17</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2977,7 +2980,7 @@
         <v>73</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f>(C18-D18)/C18</f>
         <v>0.48226950354609927</v>
       </c>
     </row>
@@ -2995,7 +2998,7 @@
         <v>361</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f>(C19-D19)/C19</f>
         <v>0.46359583952451711</v>
       </c>
     </row>
@@ -3013,7 +3016,7 @@
         <v>324</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f>(C20-D20)/C20</f>
         <v>0.44137931034482758</v>
       </c>
     </row>
@@ -3031,35 +3034,53 @@
         <v>76</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f>(C21-D21)/C21</f>
         <v>0.38709677419354838</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>484</v>
+      </c>
+      <c r="D22">
+        <v>308</v>
+      </c>
+      <c r="E22" s="2">
+        <f>(C22-D22)/C22</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>551</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>398</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
+      <c r="E23" s="2">
+        <f>(C23-D23)/C23</f>
         <v>0.27767695099818512</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
       <sortCondition descending="1" ref="E1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E22">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFB7978-5C00-43C0-B69A-94FAA2924797}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E978BC-1D21-4A4A-91A1-CB2AFF1005BC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
   <si>
     <t>Carpet</t>
   </si>
@@ -229,18 +229,6 @@
     <t>Swiss Indoors</t>
   </si>
   <si>
-    <t>Serena Williams (USA)</t>
-  </si>
-  <si>
-    <t>Kim Clijsters (BELGIUM)</t>
-  </si>
-  <si>
-    <t>Iga Świątek (POLAND)</t>
-  </si>
-  <si>
-    <t>Ashleigh Barty (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>PLAYER NAME</t>
   </si>
   <si>
@@ -256,58 +244,22 @@
     <t>WINNING PERCENTILE RANGE</t>
   </si>
   <si>
-    <t>Petra Kvitová (CZECH REPUBLIC)</t>
-  </si>
-  <si>
-    <t>Angelique Kerber (GERMANY)</t>
-  </si>
-  <si>
-    <t>Maria Sharapova (RUSSIA)</t>
-  </si>
-  <si>
     <t>Aga Radwańska (POLAND)</t>
   </si>
   <si>
-    <t>Leylah Fernandez (CANADA)</t>
-  </si>
-  <si>
-    <t>Coco Gauff (USA)</t>
-  </si>
-  <si>
-    <t>Novak Djokovic (SERBIA)</t>
-  </si>
-  <si>
-    <t>Rafael Nadal (SPAIN)</t>
-  </si>
-  <si>
-    <t>Andy Murray (GREAT BRITAIN)</t>
-  </si>
-  <si>
-    <t>Juan Martín Del Potro (ARGENTINA)</t>
-  </si>
-  <si>
-    <t>Daniil Medvedev (RUSSIA)</t>
-  </si>
-  <si>
-    <t>Marin Čilić (CROATIA)</t>
-  </si>
-  <si>
     <t>Sacsha Zverev (GERMANY)</t>
   </si>
   <si>
-    <t>Matteo Berrettini (ITALY)</t>
-  </si>
-  <si>
     <t>Jannik Sinner (ITALY)</t>
   </si>
   <si>
-    <t>Aryna Sabalenka (BELARUS)</t>
-  </si>
-  <si>
     <t>Shuai Zhang (CHINA)</t>
   </si>
   <si>
     <t>John Isner (USA)</t>
+  </si>
+  <si>
+    <t>Hubert Hurkacz (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -351,11 +303,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2646,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,415 +2614,127 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>858</v>
+        <v>339</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2">
-        <f>(C2-D2)/C2</f>
-        <v>0.81818181818181823</v>
+        <f t="shared" ref="E2:E7" si="0">(C2-D2)/C2</f>
+        <v>0.55752212389380529</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1022</v>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>594</v>
       </c>
       <c r="D3">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2">
-        <f>(C3-D3)/C3</f>
-        <v>0.79941291585127205</v>
+        <f t="shared" si="0"/>
+        <v>0.54713804713804715</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>92</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1066</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
-        <f>(C4-D4)/C4</f>
-        <v>0.79924953095684803</v>
+        <f t="shared" si="0"/>
+        <v>0.54032258064516125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="D5">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="E5" s="2">
-        <f>(C5-D5)/C5</f>
-        <v>0.75096525096525102</v>
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>551</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="E6" s="2">
-        <f>(C6-D6)/C6</f>
-        <v>0.73529411764705888</v>
+        <f t="shared" si="0"/>
+        <v>0.27767695099818512</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>645</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2">
-        <f>(C7-D7)/C7</f>
-        <v>0.73488372093023258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>714</v>
-      </c>
-      <c r="D8">
-        <v>230</v>
-      </c>
-      <c r="E8" s="2">
-        <f>(C8-D8)/C8</f>
-        <v>0.67787114845938379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>305</v>
-      </c>
-      <c r="D9">
-        <v>101</v>
-      </c>
-      <c r="E9" s="2">
-        <f>(C9-D9)/C9</f>
-        <v>0.66885245901639345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>439</v>
-      </c>
-      <c r="D10">
-        <v>173</v>
-      </c>
-      <c r="E10" s="2">
-        <f>(C10-D10)/C10</f>
-        <v>0.60592255125284733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>262</v>
-      </c>
-      <c r="D11">
-        <v>114</v>
-      </c>
-      <c r="E11" s="2">
-        <f>(C11-D11)/C11</f>
-        <v>0.56488549618320616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>339</v>
-      </c>
-      <c r="D12">
-        <v>150</v>
-      </c>
-      <c r="E12" s="2">
-        <f>(C12-D12)/C12</f>
-        <v>0.55752212389380529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>600</v>
-      </c>
-      <c r="D13">
-        <v>269</v>
-      </c>
-      <c r="E13" s="2">
-        <f>(C13-D13)/C13</f>
-        <v>0.55166666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>594</v>
-      </c>
-      <c r="D14">
-        <v>269</v>
-      </c>
-      <c r="E14" s="2">
-        <f>(C14-D14)/C14</f>
-        <v>0.54713804713804715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>124</v>
-      </c>
-      <c r="D15">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2">
-        <f>(C15-D15)/C15</f>
-        <v>0.54032258064516125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>307</v>
-      </c>
-      <c r="D16">
-        <v>151</v>
-      </c>
-      <c r="E16" s="2">
-        <f>(C16-D16)/C16</f>
-        <v>0.50814332247557004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>120</v>
-      </c>
-      <c r="D17">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2">
-        <f>(C17-D17)/C17</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>141</v>
-      </c>
-      <c r="D18">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2">
-        <f>(C18-D18)/C18</f>
-        <v>0.48226950354609927</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>673</v>
-      </c>
-      <c r="D19">
-        <v>361</v>
-      </c>
-      <c r="E19" s="2">
-        <f>(C19-D19)/C19</f>
-        <v>0.46359583952451711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>580</v>
-      </c>
-      <c r="D20">
-        <v>324</v>
-      </c>
-      <c r="E20" s="2">
-        <f>(C20-D20)/C20</f>
-        <v>0.44137931034482758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>124</v>
-      </c>
-      <c r="D21">
-        <v>76</v>
-      </c>
-      <c r="E21" s="2">
-        <f>(C21-D21)/C21</f>
-        <v>0.38709677419354838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>484</v>
-      </c>
-      <c r="D22">
-        <v>308</v>
-      </c>
-      <c r="E22" s="2">
-        <f>(C22-D22)/C22</f>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>551</v>
-      </c>
-      <c r="D23">
-        <v>398</v>
-      </c>
-      <c r="E23" s="2">
-        <f>(C23-D23)/C23</f>
-        <v>0.27767695099818512</v>
+        <f t="shared" si="0"/>
+        <v>0.23404255319148937</v>
       </c>
     </row>
   </sheetData>
@@ -3080,8 +2743,8 @@
       <sortCondition descending="1" ref="E1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E23">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F34899E-98B1-4576-9328-71C9315BC39C}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E978BC-1D21-4A4A-91A1-CB2AFF1005BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="Rafael Nadal (SPAIN)" sheetId="3" r:id="rId3"/>
     <sheet name="Novak Djokovic (SERBIA)" sheetId="4" r:id="rId4"/>
     <sheet name="Roger Federer (SWITZERLAND)" sheetId="5" r:id="rId5"/>
+    <sheet name="Word Document Organization" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Word Document Organization'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
   <si>
     <t>Carpet</t>
   </si>
@@ -223,6 +227,39 @@
   </si>
   <si>
     <t>Swiss Indoors</t>
+  </si>
+  <si>
+    <t>PLAYER NAME</t>
+  </si>
+  <si>
+    <t>NUMBER OF TITLES WON</t>
+  </si>
+  <si>
+    <t>WINS</t>
+  </si>
+  <si>
+    <t>LOSSES</t>
+  </si>
+  <si>
+    <t>WINNING PERCENTILE RANGE</t>
+  </si>
+  <si>
+    <t>Aga Radwańska (POLAND)</t>
+  </si>
+  <si>
+    <t>Sacsha Zverev (GERMANY)</t>
+  </si>
+  <si>
+    <t>Jannik Sinner (ITALY)</t>
+  </si>
+  <si>
+    <t>Shuai Zhang (CHINA)</t>
+  </si>
+  <si>
+    <t>John Isner (USA)</t>
+  </si>
+  <si>
+    <t>Hubert Hurkacz (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -266,9 +303,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,6 +322,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,17 +631,17 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C38"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -621,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -632,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -643,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -654,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -665,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -676,7 +718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -687,31 +729,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -720,29 +762,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1999</v>
       </c>
@@ -753,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1999</v>
       </c>
@@ -764,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -775,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -786,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -797,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -808,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -819,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -830,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -841,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2003</v>
       </c>
@@ -852,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2003</v>
       </c>
@@ -863,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2007</v>
       </c>
@@ -874,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2008</v>
       </c>
@@ -885,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -896,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -907,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -918,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -929,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -940,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -951,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -962,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -973,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -984,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -1006,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -1033,18 +1075,18 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -1066,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1077,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -1088,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -1099,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1110,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1121,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1999</v>
       </c>
@@ -1132,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1999</v>
       </c>
@@ -1143,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1154,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -1165,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -1176,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -1187,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -1198,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -1209,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -1220,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2007</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -1242,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -1280,18 +1322,18 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -1313,7 +1355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -1324,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -1335,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -1346,7 +1388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -1357,7 +1399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -1368,7 +1410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1379,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1390,7 +1432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -1401,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -1412,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -1423,7 +1465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -1434,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -1445,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2009</v>
       </c>
@@ -1456,7 +1498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -1467,7 +1509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1478,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1489,7 +1531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -1500,7 +1542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1511,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -1522,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -1533,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -1544,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -1555,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -1566,7 +1608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -1577,7 +1619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -1588,7 +1630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -1599,7 +1641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -1610,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1621,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -1632,7 +1674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2004</v>
       </c>
@@ -1643,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1654,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2010</v>
       </c>
@@ -1665,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -1676,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -1687,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1698,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1709,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -1720,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -1747,18 +1789,18 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -1780,7 +1822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -1791,7 +1833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1802,7 +1844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1813,7 +1855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -1824,7 +1866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1835,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1846,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1857,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1868,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -1879,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -1890,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -1901,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -1912,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -1923,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -1934,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -1945,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -1956,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -1967,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1978,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -1989,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -2000,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -2011,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -2022,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2033,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -2044,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -2055,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -2066,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2077,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2088,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -2099,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -2126,18 +2168,18 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -2159,7 +2201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -2170,7 +2212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -2181,7 +2223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -2192,7 +2234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -2203,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -2214,7 +2256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -2225,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -2236,7 +2278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -2247,7 +2289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -2258,7 +2300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -2269,7 +2311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -2280,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -2291,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -2302,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -2313,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -2335,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -2346,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -2357,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -2368,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -2379,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -2390,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -2401,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -2412,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -2423,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -2434,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -2445,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -2456,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -2467,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2478,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -2489,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2500,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -2511,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -2522,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2533,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -2551,4 +2593,166 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>339</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E7" si="0">(C2-D2)/C2</f>
+        <v>0.55752212389380529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>594</v>
+      </c>
+      <c r="D3">
+        <v>269</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54713804713804715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>124</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54032258064516125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>484</v>
+      </c>
+      <c r="D5">
+        <v>308</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>551</v>
+      </c>
+      <c r="D6">
+        <v>398</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27767695099818512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>141</v>
+      </c>
+      <c r="D7">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23404255319148937</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E978BC-1D21-4A4A-91A1-CB2AFF1005BC}"/>
+  <xr:revisionPtr revIDLastSave="600" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B0749A3-1A0E-4819-92E7-0EDB9F740A75}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="71">
   <si>
     <t>Carpet</t>
   </si>
@@ -256,10 +256,7 @@
     <t>Shuai Zhang (CHINA)</t>
   </si>
   <si>
-    <t>John Isner (USA)</t>
-  </si>
-  <si>
-    <t>Hubert Hurkacz (POLAND)</t>
+    <t>Tel-Aviv Indoors</t>
   </si>
 </sst>
 </file>
@@ -322,10 +319,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1787,10 +1780,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,6 +2142,39 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2022</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2022</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2597,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2631,120 +2657,84 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E7" si="0">(C2-D2)/C2</f>
-        <v>0.55752212389380529</v>
+        <f>(C2-D2)/C2</f>
+        <v>0.57485029940119758</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>594</v>
+        <v>377</v>
       </c>
       <c r="D3">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54713804713804715</v>
+        <f>(C3-D3)/C3</f>
+        <v>0.54907161803713533</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>594</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54032258064516125</v>
+        <f>(C4-D4)/C4</f>
+        <v>0.54713804713804715</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="D5">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>551</v>
-      </c>
-      <c r="D6">
-        <v>398</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f>(C5-D5)/C5</f>
         <v>0.27767695099818512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>141</v>
-      </c>
-      <c r="D7">
-        <v>108</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.23404255319148937</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
       <sortCondition descending="1" ref="E1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="iconSet" priority="4">
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Tennis Legends.xlsx
+++ b/Tennis/WTA Tour/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="600" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B0749A3-1A0E-4819-92E7-0EDB9F740A75}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F242253D-66BC-427E-8BBF-4B61B9F7A963}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -2626,16 +2626,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
